--- a/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8396674468144871</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8531548969861684</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8619793419601315</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8516077225913641</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8679895732273126</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8671258506711523</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8757674880235411</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8656112442585314</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8692222179810909</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.8814575426131808</v>
+      </c>
+      <c r="D3">
+        <v>0.8941596712244189</v>
+      </c>
+      <c r="E3">
+        <v>0.8985689529210726</v>
+      </c>
+      <c r="F3">
+        <v>0.8941602476500187</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
+      <c r="J3">
+        <v>0.9057993197683822</v>
+      </c>
+      <c r="K3">
+        <v>0.906353488250487</v>
+      </c>
+      <c r="L3">
+        <v>0.9106882827935553</v>
+      </c>
+      <c r="M3">
+        <v>0.9063540548763886</v>
+      </c>
+      <c r="N3">
+        <v>0.9070856586990873</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.903621001483828</v>
+      </c>
+      <c r="D4">
+        <v>0.9159400355626884</v>
+      </c>
+      <c r="E4">
+        <v>0.9180247064010272</v>
+      </c>
+      <c r="F4">
+        <v>0.9167624343191868</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
+      <c r="J4">
+        <v>0.9258586021949988</v>
+      </c>
+      <c r="K4">
+        <v>0.9271713388441424</v>
+      </c>
+      <c r="L4">
+        <v>0.9292247247496177</v>
+      </c>
+      <c r="M4">
+        <v>0.9279813741233589</v>
+      </c>
+      <c r="N4">
+        <v>0.9271734276075816</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9121520004826265</v>
+      </c>
+      <c r="D5">
+        <v>0.9243292543080787</v>
+      </c>
+      <c r="E5">
+        <v>0.925520756824174</v>
+      </c>
+      <c r="F5">
+        <v>0.9254687902909476</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
+      <c r="J5">
+        <v>0.93357917513707</v>
+      </c>
+      <c r="K5">
+        <v>0.9351855555383647</v>
+      </c>
+      <c r="L5">
+        <v>0.9363600137690483</v>
+      </c>
+      <c r="M5">
+        <v>0.9363087894517802</v>
+      </c>
+      <c r="N5">
+        <v>0.9349049646487928</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9135452320578118</v>
+      </c>
+      <c r="D6">
+        <v>0.9256996207493903</v>
+      </c>
+      <c r="E6">
+        <v>0.9267453038527049</v>
+      </c>
+      <c r="F6">
+        <v>0.9268910077407572</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.045370270238388</v>
+      </c>
+      <c r="J6">
+        <v>0.9348399831866119</v>
+      </c>
+      <c r="K6">
+        <v>0.9364944188667633</v>
+      </c>
+      <c r="L6">
+        <v>0.9375252622865005</v>
+      </c>
+      <c r="M6">
+        <v>0.9376689017961114</v>
+      </c>
+      <c r="N6">
+        <v>0.9361675631903815</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9037377498626123</v>
+      </c>
+      <c r="D7">
+        <v>0.9160548228639591</v>
+      </c>
+      <c r="E7">
+        <v>0.9181272663261864</v>
+      </c>
+      <c r="F7">
+        <v>0.9168815579216673</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
+      <c r="J7">
+        <v>0.9259642637273792</v>
+      </c>
+      <c r="K7">
+        <v>0.9272810121607519</v>
+      </c>
+      <c r="L7">
+        <v>0.9293223742845339</v>
+      </c>
+      <c r="M7">
+        <v>0.9280953268721932</v>
+      </c>
+      <c r="N7">
+        <v>0.9272792391914575</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D8">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E8">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F8">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J8">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K8">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L8">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M8">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N8">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D9">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E9">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F9">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J9">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K9">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L9">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M9">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N9">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D10">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E10">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F10">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J10">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K10">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L10">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M10">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N10">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D11">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E11">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F11">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J11">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K11">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L11">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M11">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N11">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D12">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E12">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F12">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J12">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K12">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L12">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M12">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N12">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D13">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E13">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F13">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J13">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K13">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L13">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M13">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N13">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D14">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E14">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F14">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J14">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K14">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L14">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M14">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N14">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D15">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E15">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F15">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J15">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K15">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L15">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M15">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N15">
+        <v>0.8832327597011603</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D16">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E16">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F16">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J16">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K16">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L16">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M16">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N16">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D17">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E17">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F17">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J17">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K17">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L17">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M17">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N17">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D18">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E18">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F18">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J18">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K18">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L18">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M18">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N18">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D19">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E19">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F19">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J19">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K19">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L19">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M19">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N19">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D20">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E20">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F20">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J20">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K20">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L20">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M20">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N20">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D21">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E21">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F21">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J21">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K21">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L21">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M21">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N21">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D22">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E22">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F22">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J22">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K22">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L22">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M22">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N22">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D23">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E23">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F23">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J23">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K23">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L23">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M23">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N23">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D24">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E24">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F24">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J24">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K24">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L24">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M24">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N24">
+        <v>0.8832327597011603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.8551350914207804</v>
+      </c>
+      <c r="D25">
+        <v>0.8683217187756892</v>
+      </c>
+      <c r="E25">
+        <v>0.8755055546903556</v>
+      </c>
+      <c r="F25">
+        <v>0.8673477648979817</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J25">
+        <v>0.8819802465864595</v>
+      </c>
+      <c r="K25">
+        <v>0.881639863393747</v>
+      </c>
+      <c r="L25">
+        <v>0.8886853530826593</v>
+      </c>
+      <c r="M25">
+        <v>0.8806848973287839</v>
+      </c>
+      <c r="N25">
+        <v>0.8832327597011603</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.013254219472886</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.015233416566223</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.014571428868869</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.011543706876183</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.018492244406895</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.018089187164591</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.017429181393906</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.014410560138832</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.019938620216647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.017526277394851</v>
+      </c>
+      <c r="D3">
+        <v>1.01918418603267</v>
+      </c>
+      <c r="E3">
+        <v>1.018346201700983</v>
+      </c>
+      <c r="F3">
+        <v>1.01651603665331</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.023504579208683</v>
+      </c>
+      <c r="J3">
+        <v>1.022380808477849</v>
+      </c>
+      <c r="K3">
+        <v>1.021836376609418</v>
+      </c>
+      <c r="L3">
+        <v>1.021000703916664</v>
+      </c>
+      <c r="M3">
+        <v>1.019175601869854</v>
+      </c>
+      <c r="N3">
+        <v>1.023832706494605</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.020253919938416</v>
+      </c>
+      <c r="D4">
+        <v>1.021705680040494</v>
+      </c>
+      <c r="E4">
+        <v>1.020754809691668</v>
+      </c>
+      <c r="F4">
+        <v>1.019693080350474</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.023443335729026</v>
+      </c>
+      <c r="J4">
+        <v>1.024861524255706</v>
+      </c>
+      <c r="K4">
+        <v>1.024226339330526</v>
+      </c>
+      <c r="L4">
+        <v>1.023277949288657</v>
+      </c>
+      <c r="M4">
+        <v>1.022218995328139</v>
+      </c>
+      <c r="N4">
+        <v>1.026316945173409</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.021392170485547</v>
+      </c>
+      <c r="D5">
+        <v>1.022757659697715</v>
+      </c>
+      <c r="E5">
+        <v>1.021759557189379</v>
+      </c>
+      <c r="F5">
+        <v>1.021019425131861</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.023416932628352</v>
+      </c>
+      <c r="J5">
+        <v>1.025896235343383</v>
+      </c>
+      <c r="K5">
+        <v>1.025223061383383</v>
+      </c>
+      <c r="L5">
+        <v>1.024227499888178</v>
+      </c>
+      <c r="M5">
+        <v>1.023489255549905</v>
+      </c>
+      <c r="N5">
+        <v>1.027353125669513</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.021582801500139</v>
+      </c>
+      <c r="D6">
+        <v>1.022933827866846</v>
+      </c>
+      <c r="E6">
+        <v>1.021927807697761</v>
+      </c>
+      <c r="F6">
+        <v>1.021241590700529</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.023412460900047</v>
+      </c>
+      <c r="J6">
+        <v>1.026069496712347</v>
+      </c>
+      <c r="K6">
+        <v>1.025389953527796</v>
+      </c>
+      <c r="L6">
+        <v>1.02438648398038</v>
+      </c>
+      <c r="M6">
+        <v>1.023702009896629</v>
+      </c>
+      <c r="N6">
+        <v>1.027526633089495</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.020269162077681</v>
+      </c>
+      <c r="D7">
+        <v>1.02171976790725</v>
+      </c>
+      <c r="E7">
+        <v>1.020768265572546</v>
+      </c>
+      <c r="F7">
+        <v>1.019710839017568</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.02344298551034</v>
+      </c>
+      <c r="J7">
+        <v>1.024875381870719</v>
+      </c>
+      <c r="K7">
+        <v>1.024239688704774</v>
+      </c>
+      <c r="L7">
+        <v>1.023290667527636</v>
+      </c>
+      <c r="M7">
+        <v>1.022236004206214</v>
+      </c>
+      <c r="N7">
+        <v>1.026330822467825</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.014705774304138</v>
+      </c>
+      <c r="D8">
+        <v>1.01657601394665</v>
+      </c>
+      <c r="E8">
+        <v>1.015854333091533</v>
+      </c>
+      <c r="F8">
+        <v>1.013232727489911</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023565007130014</v>
+      </c>
+      <c r="J8">
+        <v>1.019813928844332</v>
+      </c>
+      <c r="K8">
+        <v>1.019362936832532</v>
+      </c>
+      <c r="L8">
+        <v>1.018643358887565</v>
+      </c>
+      <c r="M8">
+        <v>1.016029419816014</v>
+      </c>
+      <c r="N8">
+        <v>1.021262181597584</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.004606198849172</v>
+      </c>
+      <c r="D9">
+        <v>1.007230399972695</v>
+      </c>
+      <c r="E9">
+        <v>1.006921940079455</v>
+      </c>
+      <c r="F9">
+        <v>1.001490106524702</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.023759139049229</v>
+      </c>
+      <c r="J9">
+        <v>1.010609262367761</v>
+      </c>
+      <c r="K9">
+        <v>1.010489775443773</v>
+      </c>
+      <c r="L9">
+        <v>1.010182386364817</v>
+      </c>
+      <c r="M9">
+        <v>1.004769528409908</v>
+      </c>
+      <c r="N9">
+        <v>1.012044443438826</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>0.9976514621185628</v>
+      </c>
+      <c r="D10">
+        <v>1.000789731151221</v>
+      </c>
+      <c r="E10">
+        <v>1.000763208523578</v>
+      </c>
+      <c r="F10">
+        <v>0.9934150868771149</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.023874603872166</v>
+      </c>
+      <c r="J10">
+        <v>1.004259756059918</v>
+      </c>
+      <c r="K10">
+        <v>1.004366036320004</v>
+      </c>
+      <c r="L10">
+        <v>1.004339615993165</v>
+      </c>
+      <c r="M10">
+        <v>0.997020070607313</v>
+      </c>
+      <c r="N10">
+        <v>1.005685920103727</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>0.9945820415727432</v>
+      </c>
+      <c r="D11">
+        <v>0.9979460153527163</v>
+      </c>
+      <c r="E11">
+        <v>0.9980433232530896</v>
+      </c>
+      <c r="F11">
+        <v>0.9898537163031801</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.023921309042974</v>
+      </c>
+      <c r="J11">
+        <v>1.00145483448833</v>
+      </c>
+      <c r="K11">
+        <v>1.001660171940655</v>
+      </c>
+      <c r="L11">
+        <v>1.001757087899811</v>
+      </c>
+      <c r="M11">
+        <v>0.9936007680487415</v>
+      </c>
+      <c r="N11">
+        <v>1.002877015221779</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>0.9934327260602452</v>
+      </c>
+      <c r="D12">
+        <v>0.9968810399351418</v>
+      </c>
+      <c r="E12">
+        <v>0.997024626607222</v>
+      </c>
+      <c r="F12">
+        <v>0.9885205519560848</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.023938164268118</v>
+      </c>
+      <c r="J12">
+        <v>1.000404165382903</v>
+      </c>
+      <c r="K12">
+        <v>1.000646507384684</v>
+      </c>
+      <c r="L12">
+        <v>1.000789506519078</v>
+      </c>
+      <c r="M12">
+        <v>0.9923205579334192</v>
+      </c>
+      <c r="N12">
+        <v>1.001824854045708</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.9936796823985873</v>
+      </c>
+      <c r="D13">
+        <v>0.9971098816584306</v>
+      </c>
+      <c r="E13">
+        <v>0.9972435282592421</v>
+      </c>
+      <c r="F13">
+        <v>0.9888069964669742</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.023934571058996</v>
+      </c>
+      <c r="J13">
+        <v>1.000629943066427</v>
+      </c>
+      <c r="K13">
+        <v>1.00086433769607</v>
+      </c>
+      <c r="L13">
+        <v>1.000997439271765</v>
+      </c>
+      <c r="M13">
+        <v>0.9925956349455366</v>
+      </c>
+      <c r="N13">
+        <v>1.002050952359441</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>0.9944872293013178</v>
+      </c>
+      <c r="D14">
+        <v>0.9978581641764943</v>
+      </c>
+      <c r="E14">
+        <v>0.9979592916115317</v>
+      </c>
+      <c r="F14">
+        <v>0.9897437303263495</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.023922712353274</v>
+      </c>
+      <c r="J14">
+        <v>1.001368167998525</v>
+      </c>
+      <c r="K14">
+        <v>1.001576559877293</v>
+      </c>
+      <c r="L14">
+        <v>1.001677279452715</v>
+      </c>
+      <c r="M14">
+        <v>0.9934951554212339</v>
+      </c>
+      <c r="N14">
+        <v>1.002790225655617</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>0.9949835520167823</v>
+      </c>
+      <c r="D15">
+        <v>0.9983180399560845</v>
+      </c>
+      <c r="E15">
+        <v>0.998399169316283</v>
+      </c>
+      <c r="F15">
+        <v>0.9903194987531382</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.023915340507297</v>
+      </c>
+      <c r="J15">
+        <v>1.001821833194462</v>
+      </c>
+      <c r="K15">
+        <v>1.002014232256939</v>
+      </c>
+      <c r="L15">
+        <v>1.00209503665413</v>
+      </c>
+      <c r="M15">
+        <v>0.99404802040149</v>
+      </c>
+      <c r="N15">
+        <v>1.003244535108169</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>0.9978539071508845</v>
+      </c>
+      <c r="D16">
+        <v>1.000977265456049</v>
+      </c>
+      <c r="E16">
+        <v>1.000942563126829</v>
+      </c>
+      <c r="F16">
+        <v>0.9936500292551788</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.023871434968932</v>
+      </c>
+      <c r="J16">
+        <v>1.004444701276064</v>
+      </c>
+      <c r="K16">
+        <v>1.00454443607267</v>
+      </c>
+      <c r="L16">
+        <v>1.004509867203952</v>
+      </c>
+      <c r="M16">
+        <v>0.9972456091152025</v>
+      </c>
+      <c r="N16">
+        <v>1.005871127963294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>0.9996385493853296</v>
+      </c>
+      <c r="D17">
+        <v>1.002630329070384</v>
+      </c>
+      <c r="E17">
+        <v>1.002523450614042</v>
+      </c>
+      <c r="F17">
+        <v>0.9957214316097815</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023843013862359</v>
+      </c>
+      <c r="J17">
+        <v>1.006074775861688</v>
+      </c>
+      <c r="K17">
+        <v>1.006116742920378</v>
+      </c>
+      <c r="L17">
+        <v>1.006010264912951</v>
+      </c>
+      <c r="M17">
+        <v>0.9992339274739905</v>
+      </c>
+      <c r="N17">
+        <v>1.007503517441801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.000673941663352</v>
+      </c>
+      <c r="D18">
+        <v>1.003589271285233</v>
+      </c>
+      <c r="E18">
+        <v>1.003440461157832</v>
+      </c>
+      <c r="F18">
+        <v>0.9969234303954668</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.023826118601775</v>
+      </c>
+      <c r="J18">
+        <v>1.007020243485816</v>
+      </c>
+      <c r="K18">
+        <v>1.007028639814519</v>
+      </c>
+      <c r="L18">
+        <v>1.006880378696346</v>
+      </c>
+      <c r="M18">
+        <v>1.000387569333966</v>
+      </c>
+      <c r="N18">
+        <v>1.008450327738402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.001026055018549</v>
+      </c>
+      <c r="D19">
+        <v>1.003915366548563</v>
+      </c>
+      <c r="E19">
+        <v>1.003752286626619</v>
+      </c>
+      <c r="F19">
+        <v>0.9973322435517095</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.023820303822167</v>
+      </c>
+      <c r="J19">
+        <v>1.007341733197905</v>
+      </c>
+      <c r="K19">
+        <v>1.007338703396832</v>
+      </c>
+      <c r="L19">
+        <v>1.007176221945657</v>
+      </c>
+      <c r="M19">
+        <v>1.000779911207235</v>
+      </c>
+      <c r="N19">
+        <v>1.008772274002758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>0.9994476526168107</v>
+      </c>
+      <c r="D20">
+        <v>1.002453518414831</v>
+      </c>
+      <c r="E20">
+        <v>1.002354366315746</v>
+      </c>
+      <c r="F20">
+        <v>0.9954998366333725</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.023846096030143</v>
+      </c>
+      <c r="J20">
+        <v>1.005900438494341</v>
+      </c>
+      <c r="K20">
+        <v>1.005948590529476</v>
+      </c>
+      <c r="L20">
+        <v>1.005849810980916</v>
+      </c>
+      <c r="M20">
+        <v>0.999021235675275</v>
+      </c>
+      <c r="N20">
+        <v>1.007328932495396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>0.9942496847689135</v>
+      </c>
+      <c r="D21">
+        <v>0.9976380573341436</v>
+      </c>
+      <c r="E21">
+        <v>0.9977487528876605</v>
+      </c>
+      <c r="F21">
+        <v>0.9894681749992777</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.02392621804881</v>
+      </c>
+      <c r="J21">
+        <v>1.001151025736646</v>
+      </c>
+      <c r="K21">
+        <v>1.001367068845475</v>
+      </c>
+      <c r="L21">
+        <v>1.001477316485575</v>
+      </c>
+      <c r="M21">
+        <v>0.9932305532751592</v>
+      </c>
+      <c r="N21">
+        <v>1.00257277502682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9909280488343507</v>
+      </c>
+      <c r="D22">
+        <v>0.9945598499968399</v>
+      </c>
+      <c r="E22">
+        <v>0.9948041307649603</v>
+      </c>
+      <c r="F22">
+        <v>0.9856158552573231</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.023973741382756</v>
+      </c>
+      <c r="J22">
+        <v>0.9981137454279894</v>
+      </c>
+      <c r="K22">
+        <v>0.9984365732416536</v>
+      </c>
+      <c r="L22">
+        <v>0.9986798203174034</v>
+      </c>
+      <c r="M22">
+        <v>0.9895308206519616</v>
+      </c>
+      <c r="N22">
+        <v>0.999531181431744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.9926941487937642</v>
+      </c>
+      <c r="D23">
+        <v>0.9961966133724155</v>
+      </c>
+      <c r="E23">
+        <v>0.9963699152088048</v>
+      </c>
+      <c r="F23">
+        <v>0.9876639277324795</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.023948818288664</v>
+      </c>
+      <c r="J23">
+        <v>0.9997288700268813</v>
+      </c>
+      <c r="K23">
+        <v>0.9999949678198961</v>
+      </c>
+      <c r="L23">
+        <v>1.000167553393247</v>
+      </c>
+      <c r="M23">
+        <v>0.9914978953822947</v>
+      </c>
+      <c r="N23">
+        <v>1.001148599692824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.9995339277947572</v>
+      </c>
+      <c r="D24">
+        <v>1.002533427767807</v>
+      </c>
+      <c r="E24">
+        <v>1.002430783944413</v>
+      </c>
+      <c r="F24">
+        <v>0.9955999850305777</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.023844704313072</v>
+      </c>
+      <c r="J24">
+        <v>1.005979230477041</v>
+      </c>
+      <c r="K24">
+        <v>1.006024587404774</v>
+      </c>
+      <c r="L24">
+        <v>1.005922328760084</v>
+      </c>
+      <c r="M24">
+        <v>0.9991173607879114</v>
+      </c>
+      <c r="N24">
+        <v>1.007407836371749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.007254528276286</v>
+      </c>
+      <c r="D25">
+        <v>1.009681926092492</v>
+      </c>
+      <c r="E25">
+        <v>1.009265570545496</v>
+      </c>
+      <c r="F25">
+        <v>1.004567291382598</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.02371141742819</v>
+      </c>
+      <c r="J25">
+        <v>1.013024839306301</v>
+      </c>
+      <c r="K25">
+        <v>1.012818864662963</v>
+      </c>
+      <c r="L25">
+        <v>1.012403893511624</v>
+      </c>
+      <c r="M25">
+        <v>1.007721323614346</v>
+      </c>
+      <c r="N25">
+        <v>1.014463450773689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,164 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9887302455550584</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.009206513242978</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9964940522207745</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.017695346103588</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.045224098310602</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.011253338544769</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.020539059636867</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.008002447529238</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.028913540582113</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007143947499266</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.031455460720928</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.025592845343448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9928865727897856</v>
+      </c>
+      <c r="D3">
+        <v>1.012284072340832</v>
+      </c>
+      <c r="E3">
+        <v>0.9998053880342308</v>
+      </c>
+      <c r="F3">
+        <v>1.020762408525691</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045318143171977</v>
+      </c>
+      <c r="J3">
+        <v>1.013573053492259</v>
+      </c>
+      <c r="K3">
+        <v>1.022762152342005</v>
+      </c>
+      <c r="L3">
+        <v>1.010440759562525</v>
+      </c>
+      <c r="M3">
+        <v>1.031136347814758</v>
+      </c>
+      <c r="N3">
+        <v>1.007993628007166</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.033214683839997</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.027162112586264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.995528876102028</v>
+      </c>
+      <c r="D4">
+        <v>1.014248055820419</v>
+      </c>
+      <c r="E4">
+        <v>1.001916446805711</v>
+      </c>
+      <c r="F4">
+        <v>1.022721381636104</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045357368412754</v>
+      </c>
+      <c r="J4">
+        <v>1.015047649338608</v>
+      </c>
+      <c r="K4">
+        <v>1.024177507765393</v>
+      </c>
+      <c r="L4">
+        <v>1.011991796903492</v>
+      </c>
+      <c r="M4">
+        <v>1.032553100749454</v>
+      </c>
+      <c r="N4">
+        <v>1.008532596740974</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034335959388051</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.028163836809383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9966342330771709</v>
+      </c>
+      <c r="D5">
+        <v>1.015074089089492</v>
+      </c>
+      <c r="E5">
+        <v>1.002801573663868</v>
+      </c>
+      <c r="F5">
+        <v>1.023543950756346</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045368675785518</v>
+      </c>
+      <c r="J5">
+        <v>1.015666724125078</v>
+      </c>
+      <c r="K5">
+        <v>1.024773798768157</v>
+      </c>
+      <c r="L5">
+        <v>1.012642548745947</v>
+      </c>
+      <c r="M5">
+        <v>1.03314859745121</v>
+      </c>
+      <c r="N5">
+        <v>1.008758993682718</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034807259019203</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.028592761762725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.996825826463178</v>
+      </c>
+      <c r="D6">
+        <v>1.015220614524329</v>
+      </c>
+      <c r="E6">
+        <v>1.002955827048441</v>
+      </c>
+      <c r="F6">
+        <v>1.0236877584905</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.04537027023839</v>
+      </c>
+      <c r="J6">
+        <v>1.015776777321145</v>
+      </c>
+      <c r="K6">
+        <v>1.024881713391689</v>
+      </c>
+      <c r="L6">
+        <v>1.012757443311289</v>
+      </c>
+      <c r="M6">
+        <v>1.0332542657116</v>
+      </c>
+      <c r="N6">
+        <v>1.008799725602791</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034890889024904</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.028677948867559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9955616607364779</v>
+      </c>
+      <c r="D7">
+        <v>1.014281253834769</v>
+      </c>
+      <c r="E7">
+        <v>1.001944741192289</v>
+      </c>
+      <c r="F7">
+        <v>1.022748716495011</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045357539874439</v>
+      </c>
+      <c r="J7">
+        <v>1.015073452602849</v>
+      </c>
+      <c r="K7">
+        <v>1.024207374287231</v>
+      </c>
+      <c r="L7">
+        <v>1.012016757837192</v>
+      </c>
+      <c r="M7">
+        <v>1.032577211579463</v>
+      </c>
+      <c r="N7">
+        <v>1.008543413246651</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034355041658196</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.028205385300314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9901679974212644</v>
+      </c>
+      <c r="D8">
+        <v>1.010280449794726</v>
+      </c>
+      <c r="E8">
+        <v>0.9976409808441333</v>
+      </c>
+      <c r="F8">
+        <v>1.018758065876353</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045260356825638</v>
+      </c>
+      <c r="J8">
+        <v>1.012065300936775</v>
+      </c>
+      <c r="K8">
+        <v>1.021322943505686</v>
+      </c>
+      <c r="L8">
+        <v>1.00885300164839</v>
+      </c>
+      <c r="M8">
+        <v>1.029689803405642</v>
+      </c>
+      <c r="N8">
+        <v>1.007443426645943</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.032069828266333</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.026170440014617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9802551556311992</v>
+      </c>
+      <c r="D9">
+        <v>1.002974748372914</v>
+      </c>
+      <c r="E9">
+        <v>0.9897769437737381</v>
+      </c>
+      <c r="F9">
+        <v>1.01149380674108</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.044923609578788</v>
+      </c>
+      <c r="J9">
+        <v>1.006524953509546</v>
+      </c>
+      <c r="K9">
+        <v>1.016019746031121</v>
+      </c>
+      <c r="L9">
+        <v>1.003038089502008</v>
+      </c>
+      <c r="M9">
+        <v>1.024403117301862</v>
+      </c>
+      <c r="N9">
+        <v>1.00540641485879</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.027885708390115</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.022417346627866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9734640623071643</v>
+      </c>
+      <c r="D10">
+        <v>0.9980507298469454</v>
+      </c>
+      <c r="E10">
+        <v>0.9844376278867174</v>
+      </c>
+      <c r="F10">
+        <v>1.006657309581335</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.044587919160615</v>
+      </c>
+      <c r="J10">
+        <v>1.002771553265148</v>
+      </c>
+      <c r="K10">
+        <v>1.012455268385099</v>
+      </c>
+      <c r="L10">
+        <v>0.9990936679912407</v>
+      </c>
+      <c r="M10">
+        <v>1.02090739565373</v>
+      </c>
+      <c r="N10">
+        <v>1.004028416109123</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.025171306547051</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.019914085242907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9712346390695448</v>
+      </c>
+      <c r="D11">
+        <v>0.9967309223979399</v>
+      </c>
+      <c r="E11">
+        <v>0.9827921042385644</v>
+      </c>
+      <c r="F11">
+        <v>1.005771414657521</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.0444161704399</v>
+      </c>
+      <c r="J11">
+        <v>1.001855062410347</v>
+      </c>
+      <c r="K11">
+        <v>1.011714753186047</v>
+      </c>
+      <c r="L11">
+        <v>0.9980459998933379</v>
+      </c>
+      <c r="M11">
+        <v>1.020585305162744</v>
+      </c>
+      <c r="N11">
+        <v>1.003751309684377</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.025359320175838</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.019424031698534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9706927026980046</v>
+      </c>
+      <c r="D12">
+        <v>0.9965466950149225</v>
+      </c>
+      <c r="E12">
+        <v>0.982446580570919</v>
+      </c>
+      <c r="F12">
+        <v>1.0058912114429</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.044348406001364</v>
+      </c>
+      <c r="J12">
+        <v>1.001791358814276</v>
+      </c>
+      <c r="K12">
+        <v>1.011740355303967</v>
+      </c>
+      <c r="L12">
+        <v>0.9979179843798345</v>
+      </c>
+      <c r="M12">
+        <v>1.020906408831566</v>
+      </c>
+      <c r="N12">
+        <v>1.003778087787533</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025944104264013</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.019442133952007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9714355778645105</v>
+      </c>
+      <c r="D13">
+        <v>0.9972513046947363</v>
+      </c>
+      <c r="E13">
+        <v>0.9830961176224434</v>
+      </c>
+      <c r="F13">
+        <v>1.00682458869053</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.044363121405786</v>
+      </c>
+      <c r="J13">
+        <v>1.002402790333728</v>
+      </c>
+      <c r="K13">
+        <v>1.012387143888134</v>
+      </c>
+      <c r="L13">
+        <v>0.9985093466251201</v>
+      </c>
+      <c r="M13">
+        <v>1.021778599231805</v>
+      </c>
+      <c r="N13">
+        <v>1.004050591902574</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026913575024408</v>
+      </c>
+      <c r="Q13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R13">
+        <v>1.019896908183688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.972537379728402</v>
+      </c>
+      <c r="D14">
+        <v>0.9981474545213748</v>
+      </c>
+      <c r="E14">
+        <v>0.9840015642853699</v>
+      </c>
+      <c r="F14">
+        <v>1.007845200571478</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.044410650012188</v>
+      </c>
+      <c r="J14">
+        <v>1.003136368901919</v>
+      </c>
+      <c r="K14">
+        <v>1.013121406753516</v>
+      </c>
+      <c r="L14">
+        <v>0.999249002999852</v>
+      </c>
+      <c r="M14">
+        <v>1.022637445895897</v>
+      </c>
+      <c r="N14">
+        <v>1.004352793370848</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027767449276352</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.020417530482715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.973093301268107</v>
+      </c>
+      <c r="D15">
+        <v>0.9985721744510284</v>
+      </c>
+      <c r="E15">
+        <v>0.9844464200065035</v>
+      </c>
+      <c r="F15">
+        <v>1.008290940737176</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.044439407833738</v>
+      </c>
+      <c r="J15">
+        <v>1.003471750256458</v>
+      </c>
+      <c r="K15">
+        <v>1.013448990129954</v>
+      </c>
+      <c r="L15">
+        <v>0.9995941415772389</v>
+      </c>
+      <c r="M15">
+        <v>1.02298710926619</v>
+      </c>
+      <c r="N15">
+        <v>1.004483586986566</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028081674323829</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.020655140791102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9758189939271467</v>
+      </c>
+      <c r="D16">
+        <v>1.000521000847815</v>
+      </c>
+      <c r="E16">
+        <v>0.9865695259638079</v>
+      </c>
+      <c r="F16">
+        <v>1.010188092206954</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.044598761177637</v>
+      </c>
+      <c r="J16">
+        <v>1.00494599962431</v>
+      </c>
+      <c r="K16">
+        <v>1.014844204725418</v>
+      </c>
+      <c r="L16">
+        <v>1.001148176078233</v>
+      </c>
+      <c r="M16">
+        <v>1.024339657399827</v>
+      </c>
+      <c r="N16">
+        <v>1.005015273385586</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029111669870171</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.021644869657596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9773365824368474</v>
+      </c>
+      <c r="D17">
+        <v>1.001550346710955</v>
+      </c>
+      <c r="E17">
+        <v>0.9877286802933977</v>
+      </c>
+      <c r="F17">
+        <v>1.011106468459784</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.044691650831722</v>
+      </c>
+      <c r="J17">
+        <v>1.005694431006366</v>
+      </c>
+      <c r="K17">
+        <v>1.015531247229934</v>
+      </c>
+      <c r="L17">
+        <v>1.001955346545334</v>
+      </c>
+      <c r="M17">
+        <v>1.024922523678528</v>
+      </c>
+      <c r="N17">
+        <v>1.005265264272642</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029442185816927</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.022133288313817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9779347903791971</v>
+      </c>
+      <c r="D18">
+        <v>1.001844624945812</v>
+      </c>
+      <c r="E18">
+        <v>0.9881425933128691</v>
+      </c>
+      <c r="F18">
+        <v>1.011204323920196</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.044743285667331</v>
+      </c>
+      <c r="J18">
+        <v>1.00585811650198</v>
+      </c>
+      <c r="K18">
+        <v>1.015631593545339</v>
+      </c>
+      <c r="L18">
+        <v>1.002169188880891</v>
+      </c>
+      <c r="M18">
+        <v>1.02483241872913</v>
+      </c>
+      <c r="N18">
+        <v>1.005284482053688</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02913081846283</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.022192378877809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9777383929909413</v>
+      </c>
+      <c r="D19">
+        <v>1.00151163350365</v>
+      </c>
+      <c r="E19">
+        <v>0.9879173672411408</v>
+      </c>
+      <c r="F19">
+        <v>1.010580070654988</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.044760460044801</v>
+      </c>
+      <c r="J19">
+        <v>1.005529903205241</v>
+      </c>
+      <c r="K19">
+        <v>1.015239921467809</v>
+      </c>
+      <c r="L19">
+        <v>1.001882290618764</v>
+      </c>
+      <c r="M19">
+        <v>1.024155066014376</v>
+      </c>
+      <c r="N19">
+        <v>1.005116327633154</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.028265800821204</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.021921964665192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9752778263490256</v>
+      </c>
+      <c r="D20">
+        <v>0.9993869758862615</v>
+      </c>
+      <c r="E20">
+        <v>0.9858679617792895</v>
+      </c>
+      <c r="F20">
+        <v>1.007957637102455</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.044681948034609</v>
+      </c>
+      <c r="J20">
+        <v>1.003796172422284</v>
+      </c>
+      <c r="K20">
+        <v>1.013440613155633</v>
+      </c>
+      <c r="L20">
+        <v>1.00016394265999</v>
+      </c>
+      <c r="M20">
+        <v>1.02186198952928</v>
+      </c>
+      <c r="N20">
+        <v>1.004409531416679</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025916058685703</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.020653747590497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9700278989055752</v>
+      </c>
+      <c r="D21">
+        <v>0.9955380914189869</v>
+      </c>
+      <c r="E21">
+        <v>0.9817352119440015</v>
+      </c>
+      <c r="F21">
+        <v>1.004102079149069</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.044396763635349</v>
+      </c>
+      <c r="J21">
+        <v>1.000834479605859</v>
+      </c>
+      <c r="K21">
+        <v>1.010604491977856</v>
+      </c>
+      <c r="L21">
+        <v>0.9970710800555814</v>
+      </c>
+      <c r="M21">
+        <v>1.019006150912616</v>
+      </c>
+      <c r="N21">
+        <v>1.003309762164609</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.023614281517517</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.01865173382879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9666835532498359</v>
+      </c>
+      <c r="D22">
+        <v>0.9931047092544355</v>
+      </c>
+      <c r="E22">
+        <v>0.9791141544884792</v>
+      </c>
+      <c r="F22">
+        <v>1.001698766738224</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.044194488544656</v>
+      </c>
+      <c r="J22">
+        <v>0.9989590278639527</v>
+      </c>
+      <c r="K22">
+        <v>1.008814012044099</v>
+      </c>
+      <c r="L22">
+        <v>0.9951110376165031</v>
+      </c>
+      <c r="M22">
+        <v>1.017236645677381</v>
+      </c>
+      <c r="N22">
+        <v>1.002613820186101</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.022213801469693</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017371931648611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9684438875688256</v>
+      </c>
+      <c r="D23">
+        <v>0.9943763487663314</v>
+      </c>
+      <c r="E23">
+        <v>0.9804903986822033</v>
+      </c>
+      <c r="F23">
+        <v>1.002959754423078</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.044303897290665</v>
+      </c>
+      <c r="J23">
+        <v>0.9999385091295453</v>
+      </c>
+      <c r="K23">
+        <v>1.009744624606594</v>
+      </c>
+      <c r="L23">
+        <v>0.9961364761031373</v>
+      </c>
+      <c r="M23">
+        <v>1.018161347273944</v>
+      </c>
+      <c r="N23">
+        <v>1.002975768264541</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022945659590942</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018020087511235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9752622835798243</v>
+      </c>
+      <c r="D24">
+        <v>0.9993358713714955</v>
+      </c>
+      <c r="E24">
+        <v>0.9858431250207661</v>
+      </c>
+      <c r="F24">
+        <v>1.007873950305306</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.04468634017905</v>
+      </c>
+      <c r="J24">
+        <v>1.00374700849508</v>
+      </c>
+      <c r="K24">
+        <v>1.013374659899268</v>
+      </c>
+      <c r="L24">
+        <v>1.000123497633606</v>
+      </c>
+      <c r="M24">
+        <v>1.021764187280291</v>
+      </c>
+      <c r="N24">
+        <v>1.004383969076424</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025797131627243</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.020579137302242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9828961254313673</v>
+      </c>
+      <c r="D25">
+        <v>1.004927556293806</v>
+      </c>
+      <c r="E25">
+        <v>0.9918697579230897</v>
+      </c>
+      <c r="F25">
+        <v>1.013424750912703</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.045030265302785</v>
+      </c>
+      <c r="J25">
+        <v>1.008013139234114</v>
+      </c>
+      <c r="K25">
+        <v>1.017449856876531</v>
+      </c>
+      <c r="L25">
+        <v>1.004595610342369</v>
+      </c>
+      <c r="M25">
+        <v>1.025818179077658</v>
+      </c>
+      <c r="N25">
+        <v>1.005957020689096</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.029005654057754</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.023457698387398</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9887302455550584</v>
+        <v>0.9902517625883852</v>
       </c>
       <c r="D2">
-        <v>1.009206513242978</v>
+        <v>1.010652667613941</v>
       </c>
       <c r="E2">
-        <v>0.9964940522207745</v>
+        <v>0.9978562875210408</v>
       </c>
       <c r="F2">
-        <v>1.017695346103588</v>
+        <v>1.018823235638461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310602</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.011253338544769</v>
+        <v>1.012728003147129</v>
       </c>
       <c r="K2">
-        <v>1.020539059636867</v>
+        <v>1.021965562278452</v>
       </c>
       <c r="L2">
-        <v>1.008002447529238</v>
+        <v>1.009345568676428</v>
       </c>
       <c r="M2">
-        <v>1.028913540582113</v>
+        <v>1.030026416501844</v>
       </c>
       <c r="N2">
-        <v>1.007143947499266</v>
+        <v>1.010234267829122</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.031455460720928</v>
+        <v>1.032336238076297</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.025592845343448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.026610464347159</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017606807919059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9928865727897856</v>
+        <v>0.9941332756425659</v>
       </c>
       <c r="D3">
-        <v>1.012284072340832</v>
+        <v>1.013399062308904</v>
       </c>
       <c r="E3">
-        <v>0.9998053880342308</v>
+        <v>1.0009241772838</v>
       </c>
       <c r="F3">
-        <v>1.020762408525691</v>
+        <v>1.021644738869693</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.013573053492259</v>
+        <v>1.01478516129105</v>
       </c>
       <c r="K3">
-        <v>1.022762152342005</v>
+        <v>1.023863322828189</v>
       </c>
       <c r="L3">
-        <v>1.010440759562525</v>
+        <v>1.01154524673102</v>
       </c>
       <c r="M3">
-        <v>1.031136347814758</v>
+        <v>1.032007963726127</v>
       </c>
       <c r="N3">
-        <v>1.007993628007166</v>
+        <v>1.010829705078875</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.033214683839997</v>
+        <v>1.033904516120922</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.027162112586264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.027949400008928</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018057643399752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.995528876102028</v>
+        <v>0.9966037815136243</v>
       </c>
       <c r="D4">
-        <v>1.014248055820419</v>
+        <v>1.015154172703325</v>
       </c>
       <c r="E4">
-        <v>1.001916446805711</v>
+        <v>1.002882876914956</v>
       </c>
       <c r="F4">
-        <v>1.022721381636104</v>
+        <v>1.02344921777734</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.015047649338608</v>
+        <v>1.016094763703885</v>
       </c>
       <c r="K4">
-        <v>1.024177507765393</v>
+        <v>1.025073077030046</v>
       </c>
       <c r="L4">
-        <v>1.011991796903492</v>
+        <v>1.012946632234369</v>
       </c>
       <c r="M4">
-        <v>1.032553100749454</v>
+        <v>1.033272635010791</v>
       </c>
       <c r="N4">
-        <v>1.008532596740974</v>
+        <v>1.011208088393106</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034335959388051</v>
+        <v>1.034905427207738</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.028163836809383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.028805816812951</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018342196511052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9966342330771709</v>
+        <v>0.9976377301788547</v>
       </c>
       <c r="D5">
-        <v>1.015074089089492</v>
+        <v>1.015893070586467</v>
       </c>
       <c r="E5">
-        <v>1.002801573663868</v>
+        <v>1.003704628574986</v>
       </c>
       <c r="F5">
-        <v>1.023543950756346</v>
+        <v>1.024207403257773</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.015666724125078</v>
+        <v>1.016645058804688</v>
       </c>
       <c r="K5">
-        <v>1.024773798768157</v>
+        <v>1.025583502966511</v>
       </c>
       <c r="L5">
-        <v>1.012642548745947</v>
+        <v>1.013535063258262</v>
       </c>
       <c r="M5">
-        <v>1.03314859745121</v>
+        <v>1.033804685248126</v>
       </c>
       <c r="N5">
-        <v>1.008758993682718</v>
+        <v>1.011367228839042</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034807259019203</v>
+        <v>1.035326512474098</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.028592761762725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029174730805988</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018462259122408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996825826463178</v>
+        <v>0.9978167264994956</v>
       </c>
       <c r="D6">
-        <v>1.015220614524329</v>
+        <v>1.01602434232694</v>
       </c>
       <c r="E6">
-        <v>1.002955827048441</v>
+        <v>1.00384768356029</v>
       </c>
       <c r="F6">
-        <v>1.0236877584905</v>
+        <v>1.024339916844748</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.015776777321145</v>
+        <v>1.016742959956893</v>
       </c>
       <c r="K6">
-        <v>1.024881713391689</v>
+        <v>1.025676378838607</v>
       </c>
       <c r="L6">
-        <v>1.012757443311289</v>
+        <v>1.013638938778998</v>
       </c>
       <c r="M6">
-        <v>1.0332542657116</v>
+        <v>1.033899218140574</v>
       </c>
       <c r="N6">
-        <v>1.008799725602791</v>
+        <v>1.011395912078849</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034890889024904</v>
+        <v>1.035401329458363</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.028677948867559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029250148065126</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018484907129271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9955616607364779</v>
+        <v>0.9966421455920167</v>
       </c>
       <c r="D7">
-        <v>1.014281253834769</v>
+        <v>1.015190854587831</v>
       </c>
       <c r="E7">
-        <v>1.001944741192289</v>
+        <v>1.002916370147502</v>
       </c>
       <c r="F7">
-        <v>1.022748716495011</v>
+        <v>1.023479577933774</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.015073452602849</v>
+        <v>1.016126015100042</v>
       </c>
       <c r="K7">
-        <v>1.024207374287231</v>
+        <v>1.025106391314477</v>
       </c>
       <c r="L7">
-        <v>1.012016757837192</v>
+        <v>1.012976734448098</v>
       </c>
       <c r="M7">
-        <v>1.032577211579463</v>
+        <v>1.033299739995526</v>
       </c>
       <c r="N7">
-        <v>1.008543413246651</v>
+        <v>1.011244379581316</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034355041658196</v>
+        <v>1.034926879153709</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.028205385300314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.028851791521969</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018353124239644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9901679974212644</v>
+        <v>0.9916188468537184</v>
       </c>
       <c r="D8">
-        <v>1.010280449794726</v>
+        <v>1.011631315493278</v>
       </c>
       <c r="E8">
-        <v>0.9976409808441333</v>
+        <v>0.9989416343818973</v>
       </c>
       <c r="F8">
-        <v>1.018758065876353</v>
+        <v>1.019816692546152</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.012065300936775</v>
+        <v>1.013472993806162</v>
       </c>
       <c r="K8">
-        <v>1.021322943505686</v>
+        <v>1.02265600489344</v>
       </c>
       <c r="L8">
-        <v>1.00885300164839</v>
+        <v>1.010135961013431</v>
       </c>
       <c r="M8">
-        <v>1.029689803405642</v>
+        <v>1.030734761391222</v>
       </c>
       <c r="N8">
-        <v>1.007443426645943</v>
+        <v>1.01053124002643</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.032069828266333</v>
+        <v>1.032896851783806</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.026170440014617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027124233141859</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017776909295186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802551556311992</v>
+        <v>0.9823843498259099</v>
       </c>
       <c r="D9">
-        <v>1.002974748372914</v>
+        <v>1.005129509365063</v>
       </c>
       <c r="E9">
-        <v>0.9897769437737381</v>
+        <v>0.9916774612154033</v>
       </c>
       <c r="F9">
-        <v>1.01149380674108</v>
+        <v>1.01315122400895</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.006524953509546</v>
+        <v>1.008574873977793</v>
       </c>
       <c r="K9">
-        <v>1.016019746031121</v>
+        <v>1.01813990847751</v>
       </c>
       <c r="L9">
-        <v>1.003038089502008</v>
+        <v>1.004907024593124</v>
       </c>
       <c r="M9">
-        <v>1.024403117301862</v>
+        <v>1.026034475321999</v>
       </c>
       <c r="N9">
-        <v>1.00540641485879</v>
+        <v>1.009118712548027</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.027885708390115</v>
+        <v>1.029176840799809</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.022417346627866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.023927448567342</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016686331901709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9734640623071643</v>
+        <v>0.9761047843837809</v>
       </c>
       <c r="D10">
-        <v>0.9980507298469454</v>
+        <v>1.000786738652134</v>
       </c>
       <c r="E10">
-        <v>0.9844376278867174</v>
+        <v>0.986790069044934</v>
       </c>
       <c r="F10">
-        <v>1.006657309581335</v>
+        <v>1.008751609454303</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.002771553265148</v>
+        <v>1.005299616402351</v>
       </c>
       <c r="K10">
-        <v>1.012455268385099</v>
+        <v>1.015141802803779</v>
       </c>
       <c r="L10">
-        <v>0.9990936679912407</v>
+        <v>1.00140200053138</v>
       </c>
       <c r="M10">
-        <v>1.02090739565373</v>
+        <v>1.022964628503577</v>
       </c>
       <c r="N10">
-        <v>1.004028416109123</v>
+        <v>1.008289247337636</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.025171306547051</v>
+        <v>1.026799397439997</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.019914085242907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.021826348799247</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015961797197672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9712346390695448</v>
+        <v>0.9740251819532868</v>
       </c>
       <c r="D11">
-        <v>0.9967309223979399</v>
+        <v>0.9996250915175015</v>
       </c>
       <c r="E11">
-        <v>0.9827921042385644</v>
+        <v>0.9852754718229774</v>
       </c>
       <c r="F11">
-        <v>1.005771414657521</v>
+        <v>1.007983244688453</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.001855062410347</v>
+        <v>1.004519941050277</v>
       </c>
       <c r="K11">
-        <v>1.011714753186047</v>
+        <v>1.014554081528267</v>
       </c>
       <c r="L11">
-        <v>0.9980459998933379</v>
+        <v>1.000480517982274</v>
       </c>
       <c r="M11">
-        <v>1.020585305162744</v>
+        <v>1.022756162892444</v>
       </c>
       <c r="N11">
-        <v>1.003751309684377</v>
+        <v>1.008337850323282</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.025359320175838</v>
+        <v>1.027076444244428</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.019424031698534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02144750870554</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015901011883152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706927026980046</v>
+        <v>0.9734868900134912</v>
       </c>
       <c r="D12">
-        <v>0.9965466950149225</v>
+        <v>0.9994447714591285</v>
       </c>
       <c r="E12">
-        <v>0.982446580570919</v>
+        <v>0.9849307525427934</v>
       </c>
       <c r="F12">
-        <v>1.0058912114429</v>
+        <v>1.008103694236253</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.001791358814276</v>
+        <v>1.004457317329517</v>
       </c>
       <c r="K12">
-        <v>1.011740355303967</v>
+        <v>1.014582616507705</v>
       </c>
       <c r="L12">
-        <v>0.9979179843798345</v>
+        <v>1.000352464363796</v>
       </c>
       <c r="M12">
-        <v>1.020906408831566</v>
+        <v>1.023077269820452</v>
       </c>
       <c r="N12">
-        <v>1.003778087787533</v>
+        <v>1.008457828465282</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025944104264013</v>
+        <v>1.027660634719035</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.019442133952007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.021467684123867</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015969933267564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9714355778645105</v>
+        <v>0.9741067990128589</v>
       </c>
       <c r="D13">
-        <v>0.9972513046947363</v>
+        <v>1.000022984328306</v>
       </c>
       <c r="E13">
-        <v>0.9830961176224434</v>
+        <v>0.9854677235833499</v>
       </c>
       <c r="F13">
-        <v>1.00682458869053</v>
+        <v>1.008938407778923</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.002402790333728</v>
+        <v>1.004952123007168</v>
       </c>
       <c r="K13">
-        <v>1.012387143888134</v>
+        <v>1.015105711576238</v>
       </c>
       <c r="L13">
-        <v>0.9985093466251201</v>
+        <v>1.00083374745772</v>
       </c>
       <c r="M13">
-        <v>1.021778599231805</v>
+        <v>1.023852876697333</v>
       </c>
       <c r="N13">
-        <v>1.004050591902574</v>
+        <v>1.008610228540509</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026913575024408</v>
+        <v>1.028553314792401</v>
       </c>
       <c r="Q13">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.019896908183688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.021834750182622</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016150008452044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.972537379728402</v>
+        <v>0.9750667592671014</v>
       </c>
       <c r="D14">
-        <v>0.9981474545213748</v>
+        <v>1.000773056077861</v>
       </c>
       <c r="E14">
-        <v>0.9840015642853699</v>
+        <v>0.9862445567013763</v>
       </c>
       <c r="F14">
-        <v>1.007845200571478</v>
+        <v>1.009846196059062</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.003136368901919</v>
+        <v>1.005552074094681</v>
       </c>
       <c r="K14">
-        <v>1.013121406753516</v>
+        <v>1.015697358147634</v>
       </c>
       <c r="L14">
-        <v>0.999249002999852</v>
+        <v>1.001447944231927</v>
       </c>
       <c r="M14">
-        <v>1.022637445895897</v>
+        <v>1.024601514591972</v>
       </c>
       <c r="N14">
-        <v>1.004352793370848</v>
+        <v>1.008733293070084</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027767449276352</v>
+        <v>1.029319855164959</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.020417530482715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.022254659882861</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01632714242143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.973093301268107</v>
+        <v>0.9755608194132415</v>
       </c>
       <c r="D15">
-        <v>0.9985721744510284</v>
+        <v>1.001133520092017</v>
       </c>
       <c r="E15">
-        <v>0.9844464200065035</v>
+        <v>0.9866337484740326</v>
       </c>
       <c r="F15">
-        <v>1.008290940737176</v>
+        <v>1.010242653350335</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.044439407833787</v>
       </c>
       <c r="J15">
-        <v>1.003471750256458</v>
+        <v>1.005829378448127</v>
       </c>
       <c r="K15">
-        <v>1.013448990129954</v>
+        <v>1.01596228257914</v>
       </c>
       <c r="L15">
-        <v>0.9995941415772389</v>
+        <v>1.001738855647171</v>
       </c>
       <c r="M15">
-        <v>1.02298710926619</v>
+        <v>1.024903090043069</v>
       </c>
       <c r="N15">
-        <v>1.004483586986566</v>
+        <v>1.00877616571685</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028081674323829</v>
+        <v>1.029596031160626</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.020655140791102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.022448526173425</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01639871275842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9758189939271467</v>
+        <v>0.9780382650452306</v>
       </c>
       <c r="D16">
-        <v>1.000521000847815</v>
+        <v>1.002817567404259</v>
       </c>
       <c r="E16">
-        <v>0.9865695259638079</v>
+        <v>0.9885362154986538</v>
       </c>
       <c r="F16">
-        <v>1.010188092206954</v>
+        <v>1.01193897927629</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.00494599962431</v>
+        <v>1.007071486326414</v>
       </c>
       <c r="K16">
-        <v>1.014844204725418</v>
+        <v>1.017099606702893</v>
       </c>
       <c r="L16">
-        <v>1.001148176078233</v>
+        <v>1.003078286925541</v>
       </c>
       <c r="M16">
-        <v>1.024339657399827</v>
+        <v>1.026059911821417</v>
       </c>
       <c r="N16">
-        <v>1.005015273385586</v>
+        <v>1.008918594352783</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029111669870171</v>
+        <v>1.030471367621944</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.021644869657596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02325619720839</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016660627667795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9773365824368474</v>
+        <v>0.9794488832030126</v>
       </c>
       <c r="D17">
-        <v>1.001550346710955</v>
+        <v>1.003727252131114</v>
       </c>
       <c r="E17">
-        <v>0.9877286802933977</v>
+        <v>0.9896018440358525</v>
       </c>
       <c r="F17">
-        <v>1.011106468459784</v>
+        <v>1.012768044008962</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.005694431006366</v>
+        <v>1.007720379901285</v>
       </c>
       <c r="K17">
-        <v>1.015531247229934</v>
+        <v>1.017670243213692</v>
       </c>
       <c r="L17">
-        <v>1.001955346545334</v>
+        <v>1.003794680502789</v>
       </c>
       <c r="M17">
-        <v>1.024922523678528</v>
+        <v>1.026555846482545</v>
       </c>
       <c r="N17">
-        <v>1.005265264272642</v>
+        <v>1.008993821618271</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029442185816927</v>
+        <v>1.030733302905267</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.022133288313817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.023662550513963</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016770914336957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9779347903791971</v>
+        <v>0.9800421714887679</v>
       </c>
       <c r="D18">
-        <v>1.001844624945812</v>
+        <v>1.004009987926111</v>
       </c>
       <c r="E18">
-        <v>0.9881425933128691</v>
+        <v>0.99001392093697</v>
       </c>
       <c r="F18">
-        <v>1.011204323920196</v>
+        <v>1.012859368581785</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.00585811650198</v>
+        <v>1.007880958261233</v>
       </c>
       <c r="K18">
-        <v>1.015631593545339</v>
+        <v>1.017759860895253</v>
       </c>
       <c r="L18">
-        <v>1.002169188880891</v>
+        <v>1.004007282599479</v>
       </c>
       <c r="M18">
-        <v>1.02483241872913</v>
+        <v>1.026459763920579</v>
       </c>
       <c r="N18">
-        <v>1.005284482053688</v>
+        <v>1.008970604700079</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02913081846283</v>
+        <v>1.030417483461133</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.022192378877809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.023712931777704</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016745958379464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9777383929909413</v>
+        <v>0.9799192476779565</v>
       </c>
       <c r="D19">
-        <v>1.00151163350365</v>
+        <v>1.003751961854106</v>
       </c>
       <c r="E19">
-        <v>0.9879173672411408</v>
+        <v>0.9898568458906205</v>
       </c>
       <c r="F19">
-        <v>1.010580070654988</v>
+        <v>1.012294400692133</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.005529903205241</v>
+        <v>1.007623745547089</v>
       </c>
       <c r="K19">
-        <v>1.015239921467809</v>
+        <v>1.017442046753008</v>
       </c>
       <c r="L19">
-        <v>1.001882290618764</v>
+        <v>1.003787493398138</v>
       </c>
       <c r="M19">
-        <v>1.024155066014376</v>
+        <v>1.025840814626913</v>
       </c>
       <c r="N19">
-        <v>1.005116327633154</v>
+        <v>1.008851640705103</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.028265800821204</v>
+        <v>1.029599088215827</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.021921964665192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.023495361790346</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016612363899711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9752778263490256</v>
+        <v>0.9777537481006768</v>
       </c>
       <c r="D20">
-        <v>0.9993869758862615</v>
+        <v>1.001945874691631</v>
       </c>
       <c r="E20">
-        <v>0.9858679617792895</v>
+        <v>0.9880735473526455</v>
       </c>
       <c r="F20">
-        <v>1.007957637102455</v>
+        <v>1.009917155153659</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.003796172422284</v>
+        <v>1.006170004217643</v>
       </c>
       <c r="K20">
-        <v>1.013440613155633</v>
+        <v>1.015954594318262</v>
       </c>
       <c r="L20">
-        <v>1.00016394265999</v>
+        <v>1.002329401747983</v>
       </c>
       <c r="M20">
-        <v>1.02186198952928</v>
+        <v>1.02378783637267</v>
       </c>
       <c r="N20">
-        <v>1.004409531416679</v>
+        <v>1.008444612720076</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025916058685703</v>
+        <v>1.027440189503674</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.020653747590497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.022448046531289</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016163488998884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9700278989055752</v>
+        <v>0.9730381898005095</v>
       </c>
       <c r="D21">
-        <v>0.9955380914189869</v>
+        <v>0.9986578056907353</v>
       </c>
       <c r="E21">
-        <v>0.9817352119440015</v>
+        <v>0.9844194379218167</v>
       </c>
       <c r="F21">
-        <v>1.004102079149069</v>
+        <v>1.006490947872795</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.000834479605859</v>
+        <v>1.003708084557424</v>
       </c>
       <c r="K21">
-        <v>1.010604491977856</v>
+        <v>1.013664651049289</v>
       </c>
       <c r="L21">
-        <v>0.9970710800555814</v>
+        <v>0.9997021256638106</v>
       </c>
       <c r="M21">
-        <v>1.019006150912616</v>
+        <v>1.021350381965953</v>
       </c>
       <c r="N21">
-        <v>1.003309762164609</v>
+        <v>1.008150013811081</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.023614281517517</v>
+        <v>1.025469625523458</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.01865173382879</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.020832559639425</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01560419142995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9666835532498359</v>
+        <v>0.970034751153091</v>
       </c>
       <c r="D22">
-        <v>0.9931047092544355</v>
+        <v>0.9965805069736505</v>
       </c>
       <c r="E22">
-        <v>0.9791141544884792</v>
+        <v>0.9821038844547517</v>
       </c>
       <c r="F22">
-        <v>1.001698766738224</v>
+        <v>1.004360555873465</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9989590278639527</v>
+        <v>1.002148910542095</v>
       </c>
       <c r="K22">
-        <v>1.008814012044099</v>
+        <v>1.0122200104177</v>
       </c>
       <c r="L22">
-        <v>0.9951110376165031</v>
+        <v>0.9980384032810978</v>
       </c>
       <c r="M22">
-        <v>1.017236645677381</v>
+        <v>1.019846121427302</v>
       </c>
       <c r="N22">
-        <v>1.002613820186101</v>
+        <v>1.007958454277046</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.022213801469693</v>
+        <v>1.024279077601809</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017371931648611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.01979602350865</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015251428030995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9684438875688256</v>
+        <v>0.9716017899491666</v>
       </c>
       <c r="D23">
-        <v>0.9943763487663314</v>
+        <v>0.9976537268921829</v>
       </c>
       <c r="E23">
-        <v>0.9804903986822033</v>
+        <v>0.9833062046808593</v>
       </c>
       <c r="F23">
-        <v>1.002959754423078</v>
+        <v>1.005468927589305</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9999385091295453</v>
+        <v>1.002948994565428</v>
       </c>
       <c r="K23">
-        <v>1.009744624606594</v>
+        <v>1.012957914741232</v>
       </c>
       <c r="L23">
-        <v>0.9961364761031373</v>
+        <v>0.9988951139214278</v>
       </c>
       <c r="M23">
-        <v>1.018161347273944</v>
+        <v>1.020622497522148</v>
       </c>
       <c r="N23">
-        <v>1.002975768264541</v>
+        <v>1.008010464019335</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022945659590942</v>
+        <v>1.024893541196119</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018020087511235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.020306985114877</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015427618070555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752622835798243</v>
+        <v>0.9777473513220561</v>
       </c>
       <c r="D24">
-        <v>0.9993358713714955</v>
+        <v>1.001904059844293</v>
       </c>
       <c r="E24">
-        <v>0.9858431250207661</v>
+        <v>0.9880572098290377</v>
       </c>
       <c r="F24">
-        <v>1.007873950305306</v>
+        <v>1.009840946743422</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.00374700849508</v>
+        <v>1.006129750761289</v>
       </c>
       <c r="K24">
-        <v>1.013374659899268</v>
+        <v>1.015897820363578</v>
       </c>
       <c r="L24">
-        <v>1.000123497633606</v>
+        <v>1.00229735128923</v>
       </c>
       <c r="M24">
-        <v>1.021764187280291</v>
+        <v>1.023697420559049</v>
       </c>
       <c r="N24">
-        <v>1.004383969076424</v>
+        <v>1.008423577873866</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025797131627243</v>
+        <v>1.027327186503315</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.020579137302242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.022377286949207</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016139256035847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9828961254313673</v>
+        <v>0.9848296157034956</v>
       </c>
       <c r="D25">
-        <v>1.004927556293806</v>
+        <v>1.006857159508795</v>
       </c>
       <c r="E25">
-        <v>0.9918697579230897</v>
+        <v>0.993596913386426</v>
       </c>
       <c r="F25">
-        <v>1.013424750912703</v>
+        <v>1.01491331035771</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.008013139234114</v>
+        <v>1.009878536281427</v>
       </c>
       <c r="K25">
-        <v>1.017449856876531</v>
+        <v>1.019349951417952</v>
       </c>
       <c r="L25">
-        <v>1.004595610342369</v>
+        <v>1.006295448979249</v>
       </c>
       <c r="M25">
-        <v>1.025818179077658</v>
+        <v>1.027284444942933</v>
       </c>
       <c r="N25">
-        <v>1.005957020689096</v>
+        <v>1.009466164731537</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029005654057754</v>
+        <v>1.030166123107275</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.023457698387398</v>
+        <v>1.024814960258182</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01698387786207</v>
       </c>
     </row>
   </sheetData>
